--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,662 +380,266 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5.824104109296439e-183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.080075758867063e-120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.843215362471977e-88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8.426730977173055e-57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.903337790734004e-41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.861884469715326e-31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.917632239943843e-25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.264201614635715e-20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.00410225640711e-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.257165848585476e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.563126737402483e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.909405936112637e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.003894231609327487</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.2877376984619827</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.968723488270929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>37.29980745345683</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>166.2764318369808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>523.8252230489966</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1294.928063664615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4883.654670702894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>12216.62547411796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>2.904972378296891e-265</v>
+        <v>23715.08260662885</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>1.305757914994445e-222</v>
+        <v>38963.07231158338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>5.240315265854699e-192</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.891237458794333e-169</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.917519932720071e-151</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.700506326239657e-136</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.274818327161274e-124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.091288199646593e-114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.970173655497462e-106</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5.348287436231382e-99</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.091502518751212e-92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.783167213572337e-87</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7.17884300303997e-78</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.123358733444149e-70</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8.297182507864574e-57</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.336046235399429e-47</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.41643912912402e-41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7.925038391374113e-36</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8.503391274363826e-32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.679344782429975e-28</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.331159776215668e-23</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.745951797449688e-19</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.886033140752235e-16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.15971654453269e-14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.081818531184874e-12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.321983171070141e-08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.887240341574372e-06</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0004099915608428231</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.008837281724341945</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.6489875120837723</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>11.22967240916872</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>84.65051964934936</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>379.0860455667398</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2977.832523785852</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>11313.67189806997</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>28477.30844601035</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>55569.62000193691</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>91704.51363561535</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
-        <v>134801.3778550274</v>
+        <v>57056.54659678342</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.824104109296439e-183</v>
+        <v>3.525797383578442e-196</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>5.080075758867063e-120</v>
+        <v>3.904860921873345e-129</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.843215362471977e-88</v>
+        <v>1.44597944482867e-95</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>8.426730977173055e-57</v>
+        <v>5.784805969954611e-62</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>5.903337790734004e-41</v>
+        <v>2.879158957691437e-45</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.861884469715326e-31</v>
+        <v>2.552585663955048e-35</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>3.917632239943843e-25</v>
+        <v>7.413728217204339e-29</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.264201614635715e-20</v>
+        <v>6.524395920448551e-25</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.00410225640711e-17</v>
+        <v>-5.859009847205962e-21</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.257165848585476e-14</v>
+        <v>-3.107960581307097e-18</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.563126737402483e-12</v>
+        <v>1.108788880686843e-16</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.909405936112637e-06</v>
+        <v>2.559177904509834e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003894231609327487</v>
+        <v>0.000118676500257365</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2877376984619827</v>
+        <v>0.01808048296092079</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4.968723488270929</v>
+        <v>0.5076064074451154</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>37.29980745345683</v>
+        <v>5.416779377272577</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>166.2764318369808</v>
+        <v>31.54106863870129</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8252230489966</v>
+        <v>122.5853627143047</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1294.928063664615</v>
+        <v>359.0205961158581</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4883.654670702894</v>
+        <v>1750.60799661766</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>12216.62547411796</v>
+        <v>5271.579573850597</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>23715.08260662885</v>
+        <v>11773.12188468027</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>38963.07231158338</v>
+        <v>21584.6717747437</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>57056.54659678342</v>
+        <v>34519.96982561682</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.525797383578442e-196</v>
+        <v>5.824104109296439e-183</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.904860921873345e-129</v>
+        <v>5.080075758867063e-120</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.44597944482867e-95</v>
+        <v>1.843215362471977e-88</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.784805969954611e-62</v>
+        <v>8.426730977173055e-57</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2.879158957691437e-45</v>
+        <v>5.903337790734004e-41</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.552585663955048e-35</v>
+        <v>1.861884469715326e-31</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>7.413728217204339e-29</v>
+        <v>3.917632239943843e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>6.524395920448551e-25</v>
+        <v>1.264201614635715e-20</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.859009847205962e-21</v>
+        <v>3.00410225640711e-17</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.107960581307097e-18</v>
+        <v>1.257165848585476e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.108788880686843e-16</v>
+        <v>1.563126737402483e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.559177904509834e-08</v>
+        <v>2.909405936112637e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000118676500257365</v>
+        <v>0.003894231609327487</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01808048296092079</v>
+        <v>0.2877376984619827</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5076064074451154</v>
+        <v>4.968723488270929</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>5.416779377272577</v>
+        <v>37.29980745345683</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>31.54106863870129</v>
+        <v>166.2764318369808</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>122.5853627143047</v>
+        <v>523.8252230489966</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>359.0205961158581</v>
+        <v>1294.928063664615</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1750.60799661766</v>
+        <v>4883.654670702894</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>5271.579573850597</v>
+        <v>12216.62547411796</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>11773.12188468027</v>
+        <v>23715.08260662885</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>21584.6717747437</v>
+        <v>38963.07231158338</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>34519.96982561682</v>
+        <v>57056.54659678342</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.824104109296439e-183</v>
+        <v>3.500855415761598e-178</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>5.080075758867063e-120</v>
+        <v>3.83155847676168e-111</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.843215362471977e-88</v>
+        <v>1.410989568032976e-77</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>8.426730977173055e-57</v>
+        <v>5.849826009114078e-44</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>5.903337790734004e-41</v>
+        <v>2.948886458051786e-27</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.861884469715326e-31</v>
+        <v>2.681756552301191e-17</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>3.917632239943843e-25</v>
+        <v>7.751355977782629e-11</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.264201614635715e-20</v>
+        <v>-4.857471159070607e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.00410225640711e-17</v>
+        <v>-0.01870095496956197</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.257165848585476e-14</v>
+        <v>-14.87553439214966</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.563126737402483e-12</v>
+        <v>-2181.956319468298</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.909405936112637e-06</v>
+        <v>15004578293.51477</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003894231609327487</v>
+        <v>96660402838537.09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2877376984619827</v>
+        <v>1.57898784776316e+16</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4.968723488270929</v>
+        <v>4.550239321883526e+17</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>37.29980745345683</v>
+        <v>4.916601101301422e+18</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>166.2764318369808</v>
+        <v>2.88267954926875e+19</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8252230489966</v>
+        <v>1.125097808550081e+20</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1294.928063664615</v>
+        <v>3.304271495556832e+20</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4883.654670702894</v>
+        <v>1.616558274585635e+21</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>12216.62547411796</v>
+        <v>4.87702867417823e+21</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>23715.08260662885</v>
+        <v>1.090471858793525e+22</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>38963.07231158338</v>
+        <v>2.000836433742962e+22</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>57056.54659678342</v>
+        <v>3.201708746333287e+22</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.500855415761598e-178</v>
+        <v>2.067467451236625e-183</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.83155847676168e-111</v>
+        <v>2.64847078516149e-120</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.410989568032976e-77</v>
+        <v>1.149706193150994e-88</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.849826009114078e-44</v>
+        <v>6.287396937572038e-57</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>2.948886458051786e-27</v>
+        <v>4.823419894058714e-41</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.681756552301191e-17</v>
+        <v>1.607632979452775e-31</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>7.751355977782629e-11</v>
+        <v>3.510785211016191e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.857471159070607e-07</v>
+        <v>1.163647526300296e-20</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01870095496956197</v>
+        <v>2.821576275190876e-17</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.87553439214966</v>
+        <v>1.199564144004367e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-2181.956319468298</v>
+        <v>1.510515995536924e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>15004578293.51477</v>
+        <v>2.920599950275854e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>96660402838537.09</v>
+        <v>0.003984060943279295</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.57898784776316e+16</v>
+        <v>0.2977331822238994</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4.550239321883526e+17</v>
+        <v>5.180381952895342</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>4.916601101301422e+18</v>
+        <v>39.10010045979624</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2.88267954926875e+19</v>
+        <v>175.0146007618884</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>1.125097808550081e+20</v>
+        <v>553.1127491864128</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>3.304271495556832e+20</v>
+        <v>1370.830593119554</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>1.616558274585635e+21</v>
+        <v>5189.876222661324</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>4.87702867417823e+21</v>
+        <v>13018.62730109836</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>1.090471858793525e+22</v>
+        <v>25324.66464757486</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>2.000836433742962e+22</v>
+        <v>41675.28368456496</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>3.201708746333287e+22</v>
+        <v>61107.90753998965</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/a0/p1_rates.xlsx
+++ b/legendre_out/DATA/p1/a0/p1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.067467451236625e-183</v>
+        <v>1.244097328970301e-183</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64847078516149e-120</v>
+        <v>1.777454097835313e-120</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.149706193150994e-88</v>
+        <v>8.908946500330131e-89</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>6.287396937572038e-57</v>
+        <v>5.548082392393488e-57</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>4.823419894058714e-41</v>
+        <v>4.443214867245302e-41</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.607632979452775e-31</v>
+        <v>1.50885061817049e-31</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>3.510785211016191e-25</v>
+        <v>3.32802371533197e-25</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.163647526300296e-20</v>
+        <v>1.109824642181407e-20</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.821576275190876e-17</v>
+        <v>2.702318772099487e-17</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.199564144004367e-14</v>
+        <v>1.152449892706385e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.510515995536924e-12</v>
+        <v>1.454826277491069e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.920599950275854e-06</v>
+        <v>2.837445018196501e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003984060943279295</v>
+        <v>0.003893136928160505</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2977331822238994</v>
+        <v>0.2921132042567356</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>5.180381952895342</v>
+        <v>5.096965218272524</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>39.10010045979624</v>
+        <v>38.54849100085977</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>175.0146007618884</v>
+        <v>172.8040553989358</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>553.1127491864128</v>
+        <v>546.7489008773141</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1370.830593119554</v>
+        <v>1356.263847770982</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>5189.876222661324</v>
+        <v>5141.346013501522</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>13018.62730109836</v>
+        <v>12908.25706608755</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>25324.66464757486</v>
+        <v>25125.95658406728</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>41675.28368456496</v>
+        <v>41368.13037501593</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>61107.90753998965</v>
+        <v>60680.21738396376</v>
       </c>
     </row>
   </sheetData>
